--- a/data/D_DIRECCIONES DE ESCUELA PROFESIONAL.xlsx
+++ b/data/D_DIRECCIONES DE ESCUELA PROFESIONAL.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gustavo\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gustavo\OneDrive\Escritorio\directorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{692333F3-C981-4827-A083-9AA5BF5B1D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2C0D6F-D439-42B1-BF4E-2EC0DB32BDBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FED8977E-A452-4ED3-8939-8423419D2DD3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2D2F7B54-D7EF-4A05-ACC0-F4818D7AD04C}"/>
   </bookViews>
   <sheets>
-    <sheet name="DIRECCIONES DE ESCUELA PROFESIO" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -402,7 +402,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -457,54 +457,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -551,6 +503,47 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF001F5F"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF001F5F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF001F5F"/>
       </left>
       <right/>
@@ -563,15 +556,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color rgb="FF001F5F"/>
+        <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -582,8 +571,19 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF001F5F"/>
+        <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -597,49 +597,49 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -659,18 +659,46 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Montserrat SemiBold"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEBDE14"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
         <sz val="8"/>
         <color rgb="FF000000"/>
         <name val="Montserrat Medium"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -703,12 +731,6 @@
         <name val="Montserrat Medium"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -743,12 +765,6 @@
         <name val="Montserrat Medium"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -783,12 +799,6 @@
         <name val="Montserrat Medium"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -823,12 +833,6 @@
         <name val="Montserrat Medium"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -863,12 +867,6 @@
         <name val="Montserrat Medium"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -903,12 +901,6 @@
         <name val="Montserrat Medium"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -943,12 +935,6 @@
         <name val="Montserrat Medium"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -985,40 +971,6 @@
         </top>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Montserrat SemiBold"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFEBDE14"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1033,19 +985,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CE9084A9-83DF-4434-81EC-76FADA18445A}" name="Tabla10" displayName="Tabla10" ref="A1:H18" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
-  <autoFilter ref="A1:H18" xr:uid="{CC9D4946-B460-434B-83D3-1FFA6F54BF99}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4F37A78A-A1F1-4E7C-88A4-90B637575260}" name="Tabla1" displayName="Tabla1" ref="A1:H18" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="9" tableBorderDxfId="10">
+  <autoFilter ref="A1:H18" xr:uid="{4F37A78A-A1F1-4E7C-88A4-90B637575260}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{F939C307-CB00-4BEA-94C7-4D9CFBC5280C}" name="APELLIDOS Y NOMBRES" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{A8E4736E-8E1C-4046-9661-376662CBF9B3}" name="CARGO" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{AB7770A4-88F7-4D4C-BF49-B0DDB8329C84}" name="SIGLA" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{34338C54-3259-4F56-84D0-50EABEB888B3}" name="RESOL." dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{DAAAC853-7275-4610-B525-A5568F27AE2B}" name="TELF. FIJO" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{DA66444F-6670-493B-97C4-36F21009EF9B}" name="CORREO INSTITUCIONAL" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{D08A1BC8-4F99-4A53-BB8B-61B5EF97CFF2}" name="CORREOS GENERAL" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{410756BA-F69F-4E2B-A574-159204E7B384}" name="ANEXO" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{DF20F4D8-0DE5-4C04-A510-F3EAACFE122D}" name="APELLIDOS Y NOMBRES" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{31914EBA-CFCF-4E2D-9936-34B5676B9133}" name="CARGO" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{50929416-16FD-4EF2-89CF-08578587916E}" name="SIGLA" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{ABF8BB4D-73EE-4387-8070-1FC4780CEA7B}" name="RESOL." dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{C8F7D4AF-A008-412A-9925-75E98B96D171}" name="TELF. FIJO" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{5F600B78-3E61-444A-8312-D96EF0F80E06}" name="CORREO INSTITUCIONAL" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{ED32562F-71F8-4292-9EAC-7C444201B2A2}" name="CORREOS GENERAL" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{61D92482-256C-49D3-8160-0C8DD3DC3342}" name="ANEXO" dataDxfId="1"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1345,535 +1297,532 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B81560-B799-4551-9243-58C781527317}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBF6810C-220E-4982-956C-0EE1898DC6C4}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="32.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="12" style="4"/>
+    <col min="1" max="1" width="29.5" style="1" customWidth="1"/>
+    <col min="2" max="4" width="12" style="1"/>
+    <col min="5" max="5" width="15.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.1640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="12" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="38.25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="78.75">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="12">
         <v>2003</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="67.5">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="12">
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="33.75">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:8" ht="56.25">
+      <c r="A4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="12">
         <v>2043</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="45">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:8" ht="56.25">
+      <c r="A5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="12">
         <v>2047</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="78.75">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="12">
         <v>2065</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="45">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:8" ht="56.25">
+      <c r="A7" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="12">
         <v>2083</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="67.5">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="12">
         <v>2082</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="101.25">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:8" ht="135">
+      <c r="A9" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="12">
         <v>2101</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="67.5">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:8" ht="90">
+      <c r="A10" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="12">
         <v>2122</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="78.75">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:8" ht="90">
+      <c r="A11" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="12">
         <v>2124</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="67.5">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:8" ht="90">
+      <c r="A12" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="12">
         <v>2149</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="78.75">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="12">
         <v>2150</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="67.5">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:8" ht="90">
+      <c r="A14" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="12">
         <v>2163</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="67.5">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:8" ht="78.75">
+      <c r="A15" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="12">
         <v>2167</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="45">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:8" ht="67.5">
+      <c r="A16" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="12">
         <v>2182</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="78.75">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:8" ht="90">
+      <c r="A17" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="12">
         <v>2183</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="67.5">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:8" ht="78.75">
+      <c r="A18" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="12">
         <v>2203</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="mailto:fca.escuela.administracion@unac.edu.pe" xr:uid="{464F2E50-D41A-4F18-97D1-31B5143BDB66}"/>
-    <hyperlink ref="G3" r:id="rId2" display="mailto:fcc.escuela.contabilidad@unac.edu.pe" xr:uid="{FC909C29-D8BC-467F-AB1E-C2F8C07049EA}"/>
-    <hyperlink ref="G4" r:id="rId3" display="mailto:fcs.escuela.enfermeria@unac.edu.pe" xr:uid="{9B1B6A00-9F27-4758-A107-78061544D624}"/>
-    <hyperlink ref="G5" r:id="rId4" display="mailto:fcs.escuela.e.fisica@unac.edu.pe" xr:uid="{756088F2-5EF2-4E0C-A11F-11BF545341CE}"/>
-    <hyperlink ref="G6" r:id="rId5" display="mailto:fce.escuela.economia@unac.edu.pe" xr:uid="{02C01DED-36CE-486A-9010-F334042896DC}"/>
-    <hyperlink ref="G7" r:id="rId6" display="mailto:fcnm.escuela.fisica@unac.edu.pe" xr:uid="{12DE283D-C7BA-44C9-B239-BF0FBD5409E5}"/>
-    <hyperlink ref="G8" r:id="rId7" display="mailto:fcnm.escuela.matematica@unac.edu.pe" xr:uid="{33A1B2A3-1622-41BD-A746-AC95F31F075D}"/>
-    <hyperlink ref="G9" r:id="rId8" display="mailto:fiarn.escuela.ambientalyrn@unac.edu.pe" xr:uid="{1BC3BA27-DD1C-47EC-A9BB-B28C75C8467D}"/>
-    <hyperlink ref="G10" r:id="rId9" display="mailto:fiee.escuela.electrica@unac.edu.pe" xr:uid="{546D35E4-1673-4832-92A7-94B8EEA383FF}"/>
-    <hyperlink ref="G11" r:id="rId10" display="mailto:fiee.escuela.electronica@unac.edu.pe" xr:uid="{2A90B0A5-4C11-4DED-ACC2-CA66A5AAFAC3}"/>
-    <hyperlink ref="G12" r:id="rId11" display="mailto:fiis.escuela.industrial@unac.edu.pe" xr:uid="{BFACA80D-A75E-44F6-9CFE-B351A16CC8F2}"/>
-    <hyperlink ref="G13" r:id="rId12" display="mailto:fiis.escuela.sistemas@unac.edu.pe" xr:uid="{041AB0A9-EB88-4B12-B1B2-2896E01CDF60}"/>
-    <hyperlink ref="G14" r:id="rId13" display="mailto:fime.escuela.mecanica@unac.edu.pe" xr:uid="{4A95FEBC-671A-48AB-A171-246FFB810C61}"/>
-    <hyperlink ref="G15" r:id="rId14" display="mailto:fime.escuela.energia@unac.edu.pe" xr:uid="{1826DB04-F67A-45F6-8527-ADF2706665B7}"/>
-    <hyperlink ref="G16" r:id="rId15" display="mailto:fipa.escuela.pesquera@unac.edu.pe" xr:uid="{AC75A1D1-1E4B-4036-9EE2-D58A0162CC4E}"/>
-    <hyperlink ref="G18" r:id="rId16" display="mailto:fiq.escuela.quimica@unac.edu.pe" xr:uid="{B5C19076-385C-4DCF-AD12-E83F17D6CEC3}"/>
-    <hyperlink ref="F2" r:id="rId17" xr:uid="{291D94BA-5BCF-44B1-A64A-997155FB5872}"/>
-    <hyperlink ref="F16" r:id="rId18" xr:uid="{DB7FF355-5A54-4EDE-ACDD-2EA56F7A26AE}"/>
-    <hyperlink ref="F5" r:id="rId19" xr:uid="{6F535E13-AEBB-4C6D-AD61-454D46C078F6}"/>
-    <hyperlink ref="F6" r:id="rId20" xr:uid="{397774F3-382A-49BE-9902-297C6F99839D}"/>
-    <hyperlink ref="F7" r:id="rId21" xr:uid="{B51D0439-0135-420F-ABDD-EA5975958537}"/>
-    <hyperlink ref="F8" r:id="rId22" xr:uid="{F8CA1C8F-171F-4A8C-9E35-52C51155FFF5}"/>
-    <hyperlink ref="F9" r:id="rId23" xr:uid="{E1DBB660-2653-4F3B-9D2F-9E4D71C70C8B}"/>
-    <hyperlink ref="F11" r:id="rId24" xr:uid="{F131F52A-91E2-45BA-8E51-1251B966A152}"/>
-    <hyperlink ref="F17" r:id="rId25" xr:uid="{B7B9A391-82BE-4458-8B1D-0C48E731D971}"/>
-    <hyperlink ref="F12" r:id="rId26" xr:uid="{8883AD3D-FE65-4D2E-848E-D4C115CBDDEA}"/>
-    <hyperlink ref="F14" r:id="rId27" xr:uid="{93C15324-323C-4AE3-A507-66D6AFDC6809}"/>
-    <hyperlink ref="F15" r:id="rId28" xr:uid="{A0D544BC-36DB-4B3B-92B6-E56DD1695CCB}"/>
-    <hyperlink ref="F18" r:id="rId29" xr:uid="{0F501F12-103C-4949-9DAC-4385CDAD4DA3}"/>
-    <hyperlink ref="F13" r:id="rId30" xr:uid="{AF8509C2-FF21-4C99-9155-28D4D09C0435}"/>
-    <hyperlink ref="F3" r:id="rId31" xr:uid="{6D05E482-9BA4-4E6F-9E3C-B3DB5EB6CE62}"/>
-    <hyperlink ref="G17" r:id="rId32" display="mailto:fipa.escuela.alimentos@unac.edu.pe" xr:uid="{C22F3F5E-79DE-4227-A18B-31AC58497572}"/>
-    <hyperlink ref="D2" r:id="rId33" xr:uid="{289BE17C-B071-46CC-A6BB-A7D860D8BB67}"/>
-    <hyperlink ref="D9" r:id="rId34" xr:uid="{D22AAC86-0EBB-474C-96E8-4755302D0544}"/>
-    <hyperlink ref="D11" r:id="rId35" xr:uid="{CF0E410C-7427-4687-8587-0A6C9098B642}"/>
-    <hyperlink ref="D12" r:id="rId36" xr:uid="{44D46FB2-AC38-4B06-849B-91F5CCC7D6ED}"/>
-    <hyperlink ref="D10" r:id="rId37" display="203-D-FIIE" xr:uid="{F2D6B7A6-4787-44C3-B291-F215FC1337D6}"/>
-    <hyperlink ref="F10" r:id="rId38" xr:uid="{591B341C-9DFA-46D3-B50C-C9EBD6A3DED4}"/>
-    <hyperlink ref="D13" r:id="rId39" xr:uid="{106CF8DF-09C6-4E14-BED0-A2B261A24A30}"/>
-    <hyperlink ref="D16" r:id="rId40" xr:uid="{CD5C51EB-ACDB-4F88-A878-56F70FA87FCF}"/>
-    <hyperlink ref="D17" r:id="rId41" xr:uid="{32FAA5E3-3235-4CB3-BE31-2CEB6EB2A9BE}"/>
+    <hyperlink ref="G2" r:id="rId1" display="mailto:fca.escuela.administracion@unac.edu.pe" xr:uid="{2D42D83B-BB01-4C78-955F-16E1A5D9E9B3}"/>
+    <hyperlink ref="G3" r:id="rId2" display="mailto:fcc.escuela.contabilidad@unac.edu.pe" xr:uid="{BD009F5B-D62A-4107-968E-55A72E00F35F}"/>
+    <hyperlink ref="G4" r:id="rId3" display="mailto:fcs.escuela.enfermeria@unac.edu.pe" xr:uid="{3B5D38A1-0929-414F-9B5D-1597D3E2C5AB}"/>
+    <hyperlink ref="G5" r:id="rId4" display="mailto:fcs.escuela.e.fisica@unac.edu.pe" xr:uid="{E3BB1338-6D26-4648-9797-73CE46D67CF2}"/>
+    <hyperlink ref="G6" r:id="rId5" display="mailto:fce.escuela.economia@unac.edu.pe" xr:uid="{5CC53A0D-0695-4E6F-AE36-9B18E4D07A35}"/>
+    <hyperlink ref="G7" r:id="rId6" display="mailto:fcnm.escuela.fisica@unac.edu.pe" xr:uid="{F8242B17-E486-4351-AC1C-C2CE55ED45AE}"/>
+    <hyperlink ref="G8" r:id="rId7" display="mailto:fcnm.escuela.matematica@unac.edu.pe" xr:uid="{3771B6EC-C938-477A-AF79-981171969464}"/>
+    <hyperlink ref="G9" r:id="rId8" display="mailto:fiarn.escuela.ambientalyrn@unac.edu.pe" xr:uid="{B9D111D8-A01B-4370-A0DC-BE91729C3712}"/>
+    <hyperlink ref="G10" r:id="rId9" display="mailto:fiee.escuela.electrica@unac.edu.pe" xr:uid="{B9450B66-13CA-46C9-AC55-5BB89A260A40}"/>
+    <hyperlink ref="G11" r:id="rId10" display="mailto:fiee.escuela.electronica@unac.edu.pe" xr:uid="{AA62A92E-E71A-40F7-A25C-7AE9AC75F015}"/>
+    <hyperlink ref="G12" r:id="rId11" display="mailto:fiis.escuela.industrial@unac.edu.pe" xr:uid="{81478CAA-79F1-428A-A568-D701224AD03E}"/>
+    <hyperlink ref="G13" r:id="rId12" display="mailto:fiis.escuela.sistemas@unac.edu.pe" xr:uid="{0A1FE166-CB25-4186-B858-3E605C284AE5}"/>
+    <hyperlink ref="G14" r:id="rId13" display="mailto:fime.escuela.mecanica@unac.edu.pe" xr:uid="{9C9B0909-1A2A-4426-9568-960DAE4E14DE}"/>
+    <hyperlink ref="G15" r:id="rId14" display="mailto:fime.escuela.energia@unac.edu.pe" xr:uid="{4149E127-5907-4517-A1E7-D28D523E8841}"/>
+    <hyperlink ref="G16" r:id="rId15" display="mailto:fipa.escuela.pesquera@unac.edu.pe" xr:uid="{1331013D-034D-4A45-9511-C015709026F9}"/>
+    <hyperlink ref="G18" r:id="rId16" display="mailto:fiq.escuela.quimica@unac.edu.pe" xr:uid="{C40C3AAC-9619-4732-BC9F-E6EE7607B5EE}"/>
+    <hyperlink ref="F2" r:id="rId17" xr:uid="{E6AD5B1A-F9F9-41A0-93CC-D9439902F9EC}"/>
+    <hyperlink ref="F16" r:id="rId18" xr:uid="{3F6D0C18-AF98-4F6A-A7FC-911359647D04}"/>
+    <hyperlink ref="F5" r:id="rId19" xr:uid="{7D97A77F-4826-4DBE-AEB7-B088FBCD7D7F}"/>
+    <hyperlink ref="F6" r:id="rId20" xr:uid="{5BB3ACF9-1C9D-471D-B391-327CA128A0CE}"/>
+    <hyperlink ref="F7" r:id="rId21" xr:uid="{7C9428E9-3D61-4859-9466-DD4C4E0A5C72}"/>
+    <hyperlink ref="F8" r:id="rId22" xr:uid="{77F2661C-3D5D-47DD-A294-EA91ECB98EC3}"/>
+    <hyperlink ref="F9" r:id="rId23" xr:uid="{B09029E7-26CB-4697-8F7F-0595419CC3D2}"/>
+    <hyperlink ref="F11" r:id="rId24" xr:uid="{08E3795F-4AA2-40CA-ACCB-42844EF366EE}"/>
+    <hyperlink ref="F17" r:id="rId25" xr:uid="{CA752133-ED58-4659-8C95-96D923705A4D}"/>
+    <hyperlink ref="F12" r:id="rId26" xr:uid="{66DFC205-B93C-4170-9047-330117F0F728}"/>
+    <hyperlink ref="F14" r:id="rId27" xr:uid="{0861C941-D2D6-4762-8FD6-96C2166C2E9B}"/>
+    <hyperlink ref="F15" r:id="rId28" xr:uid="{BA52E52B-CBB7-4A79-AED5-AD41F371ECDF}"/>
+    <hyperlink ref="F18" r:id="rId29" xr:uid="{8A61F14F-45E7-45E4-ABC2-47F8ADCA2A98}"/>
+    <hyperlink ref="F13" r:id="rId30" xr:uid="{8AE281DB-8DF0-4F81-8A17-F4F1461F4D67}"/>
+    <hyperlink ref="F3" r:id="rId31" xr:uid="{96E551CF-16C9-4977-912D-AF11081F4745}"/>
+    <hyperlink ref="G17" r:id="rId32" display="mailto:fipa.escuela.alimentos@unac.edu.pe" xr:uid="{F4922335-1A8C-4B08-B3E2-B08B5015EA28}"/>
+    <hyperlink ref="D2" r:id="rId33" xr:uid="{400D6C58-1017-4F60-BE19-0F32B1DF1869}"/>
+    <hyperlink ref="D9" r:id="rId34" xr:uid="{DCDA7BA4-02C0-47F2-9C97-65F62AFDC2C2}"/>
+    <hyperlink ref="D11" r:id="rId35" xr:uid="{8CBF345A-9376-4FFD-BBB7-898749769BBF}"/>
+    <hyperlink ref="D12" r:id="rId36" xr:uid="{29BE0468-9B60-4BD6-BD9C-0E73C89939EF}"/>
+    <hyperlink ref="D10" r:id="rId37" display="203-D-FIIE" xr:uid="{F438E8B6-7B61-4ACA-95F9-26C482AFFD37}"/>
+    <hyperlink ref="F10" r:id="rId38" xr:uid="{3BAFACDE-1D7F-426F-8DE9-0D365217964E}"/>
+    <hyperlink ref="D13" r:id="rId39" xr:uid="{D57319A4-26D8-46CC-99B9-C18C451F54C6}"/>
+    <hyperlink ref="D16" r:id="rId40" xr:uid="{E1D17BF1-7507-4B60-BE61-5B60580C1AE9}"/>
+    <hyperlink ref="D17" r:id="rId41" xr:uid="{83DA2A3C-D209-4205-9C7D-6120A8ED38FF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
